--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0442AD15-32FD-D046-829E-836C5B7A7D65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="13760" yWindow="1280" windowWidth="27400" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy" sheetId="1" r:id="rId1"/>
+    <sheet name="Medium" sheetId="2" r:id="rId2"/>
+    <sheet name="Hard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,8 +26,367 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+  <si>
+    <t>1. A + B Problem</t>
+  </si>
+  <si>
+    <t>114. Unique Paths</t>
+  </si>
+  <si>
+    <t>Dynamic Programming or Pure Maths</t>
+  </si>
+  <si>
+    <t>1219. Heaters</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>138. Subarray Sum</t>
+  </si>
+  <si>
+    <t>Linked List &amp; Array</t>
+  </si>
+  <si>
+    <t>14. First Position of Target</t>
+  </si>
+  <si>
+    <t>141. Sqrt(x)</t>
+  </si>
+  <si>
+    <t>242. Convert Binary Tree to Linked Lists by Depth</t>
+  </si>
+  <si>
+    <t>Breadth-Search-First</t>
+  </si>
+  <si>
+    <t>28. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>35. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>372. Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>373. Partition Array by Odd and Even</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>376. Binary Tree Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree &amp; Divide Conquer</t>
+  </si>
+  <si>
+    <t>41. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Linked Lists &amp; Arrays</t>
+  </si>
+  <si>
+    <t>415. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>433. Number of Islands</t>
+  </si>
+  <si>
+    <t>Breadth-First-Search</t>
+  </si>
+  <si>
+    <t>453. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>457. Classical Binary Search</t>
+  </si>
+  <si>
+    <t>480. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>494. Implement Stack by Two Queues</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>517. Ugly Number</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>521. Remove Duplicate Numbers in Array</t>
+  </si>
+  <si>
+    <t>539. Move Zeroes</t>
+  </si>
+  <si>
+    <t>547. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>595. Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>27 days ago</t>
+  </si>
+  <si>
+    <t>596. Minimum Subtree</t>
+  </si>
+  <si>
+    <t>29 days ago</t>
+  </si>
+  <si>
+    <t>597. Subtree with Maximum Average</t>
+  </si>
+  <si>
+    <t>28 days ago</t>
+  </si>
+  <si>
+    <t>6. Merge Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>21 days ago</t>
+  </si>
+  <si>
+    <t>60. Search Insert Position</t>
+  </si>
+  <si>
+    <t>604. Window Sum</t>
+  </si>
+  <si>
+    <t>20 days ago</t>
+  </si>
+  <si>
+    <t>66. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>662. Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>67. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>68. Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>69. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>26 days ago</t>
+  </si>
+  <si>
+    <t>764. Calculate Circumference And Area</t>
+  </si>
+  <si>
+    <t>Too Easy</t>
+  </si>
+  <si>
+    <t>14 days ago</t>
+  </si>
+  <si>
+    <t>8. Rotate String</t>
+  </si>
+  <si>
+    <t>17 days ago</t>
+  </si>
+  <si>
+    <t>93. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>97. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>988. Arranging Coins</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>a month ago</t>
+  </si>
+  <si>
+    <t>25 days ago</t>
+  </si>
+  <si>
+    <t>18 days ago</t>
+  </si>
+  <si>
+    <t>2 days ago</t>
+  </si>
+  <si>
+    <t>13 hours ago</t>
+  </si>
+  <si>
+    <t>102. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>105. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>116. Jump Game</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>127. Topological Sorting</t>
+  </si>
+  <si>
+    <t>135. Combination Sum</t>
+  </si>
+  <si>
+    <t>Depth-First-Search</t>
+  </si>
+  <si>
+    <t>23 days ago</t>
+  </si>
+  <si>
+    <t>136. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>22 days ago</t>
+  </si>
+  <si>
+    <t>137. Clone Graph</t>
+  </si>
+  <si>
+    <t>139. Subarray Sum Closest</t>
+  </si>
+  <si>
+    <t>143. Sort Colors II</t>
+  </si>
+  <si>
+    <t>Rainbow Sort | Two Pointers</t>
+  </si>
+  <si>
+    <t>144. Interleaving Positive and Negative Numbers</t>
+  </si>
+  <si>
+    <t>148. Sort Colors</t>
+  </si>
+  <si>
+    <t>15. Permutations</t>
+  </si>
+  <si>
+    <t>153. Combination Sum II</t>
+  </si>
+  <si>
+    <t>159. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>16. Permutations II</t>
+  </si>
+  <si>
+    <t>17. Subsets</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>178. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>31. Partition Array</t>
+  </si>
+  <si>
+    <t>33. N-Queens</t>
+  </si>
+  <si>
+    <t>36. Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>380. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>443. Two Sum - Greater than target</t>
+  </si>
+  <si>
+    <t>461. Kth Smallest Numbers in Unsorted Array</t>
+  </si>
+  <si>
+    <t>Quick Select</t>
+  </si>
+  <si>
+    <t>49. Sort Letters by Case</t>
+  </si>
+  <si>
+    <t>575. Decode String</t>
+  </si>
+  <si>
+    <t>598. Zombie in Matrix</t>
+  </si>
+  <si>
+    <t>605. Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>608. Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>609. Two Sum - Less than or equal to target</t>
+  </si>
+  <si>
+    <t>614. Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>615. Course Schedule</t>
+  </si>
+  <si>
+    <t>616. Course Schedule II</t>
+  </si>
+  <si>
+    <t>618. Search Graph Nodes</t>
+  </si>
+  <si>
+    <t>62. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>669. Coin Change</t>
+  </si>
+  <si>
+    <t>7. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>70. Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>71. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>74. First Bad Version</t>
+  </si>
+  <si>
+    <t>75. Find Peak Element</t>
+  </si>
+  <si>
+    <t>88. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>183. Wood Cut</t>
+  </si>
+  <si>
+    <t>437. Copy Books</t>
+  </si>
+  <si>
+    <t>Biary Search</t>
+  </si>
+  <si>
+    <t>450. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>65. Median of two Sorted Arrays</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -34,12 +396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +422,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -65,6 +434,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,13 +704,977 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDB9DD2-904A-3F48-816C-1C1985FD58B4}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC43988-97DD-E240-9B36-A50C9ED50B95}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0442AD15-32FD-D046-829E-836C5B7A7D65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A943756-72BA-2B4A-BAA0-E30F274A0B3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="1280" windowWidth="27400" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10420" yWindow="2920" windowWidth="27400" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>65. Median of two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>30. Insert Interval</t>
+  </si>
+  <si>
+    <t>Basic Implementation</t>
   </si>
 </sst>
 </file>
@@ -705,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,8 +1147,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A943756-72BA-2B4A-BAA0-E30F274A0B3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCC16C62-8280-A341-94B1-9BD910FE89E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10420" yWindow="2920" windowWidth="27400" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -387,6 +387,45 @@
   </si>
   <si>
     <t>Basic Implementation</t>
+  </si>
+  <si>
+    <t>55. Compare Strings</t>
+  </si>
+  <si>
+    <t>HashMap or Array stores the number of same characters</t>
+  </si>
+  <si>
+    <t>9. Fizz Buzz</t>
+  </si>
+  <si>
+    <t>170. Rotate List</t>
+  </si>
+  <si>
+    <t>Linked List &amp; Array + Dummy node</t>
+  </si>
+  <si>
+    <t>13. Implement strStr()</t>
+  </si>
+  <si>
+    <t>Java String.substring(startIndex, endIndex)</t>
+  </si>
+  <si>
+    <t>78. Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>My own solution use a HashMap + while loop</t>
+  </si>
+  <si>
+    <t>need do it a second time</t>
+  </si>
+  <si>
+    <t>1AC review it sometime</t>
+  </si>
+  <si>
+    <t>sooo hard, do it more!</t>
+  </si>
+  <si>
+    <t>code is not perfect (length || time)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +451,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,9 +485,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,20 +775,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,8 +798,12 @@
       <c r="C1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -745,8 +813,12 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -756,8 +828,12 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -767,8 +843,12 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -779,7 +859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -790,7 +870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -801,7 +881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -812,7 +892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -823,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -834,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -845,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -856,7 +936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -867,7 +947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -878,7 +958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -889,7 +969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1153,6 +1233,27 @@
       </c>
       <c r="B40" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1163,19 +1264,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDB9DD2-904A-3F48-816C-1C1985FD58B4}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="G1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1185,8 +1287,12 @@
       <c r="C1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1196,8 +1302,12 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1207,8 +1317,12 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1218,8 +1332,12 @@
       <c r="C4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1230,7 +1348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1241,7 +1359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1252,7 +1370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -1263,7 +1381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -1274,7 +1392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1285,7 +1403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1296,7 +1414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1307,7 +1425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -1318,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1329,7 +1447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1340,7 +1458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1616,7 +1734,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B41" t="s">
@@ -1624,6 +1742,22 @@
       </c>
       <c r="C41" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1633,19 +1767,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC43988-97DD-E240-9B36-A50C9ED50B95}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1655,8 +1790,12 @@
       <c r="C1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1666,8 +1805,12 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1677,8 +1820,12 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1687,6 +1834,10 @@
       </c>
       <c r="C4" t="s">
         <v>44</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCC16C62-8280-A341-94B1-9BD910FE89E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52AFE8ED-3442-664B-9B02-1E933ADAB755}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="2920" windowWidth="27400" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10420" yWindow="2920" windowWidth="27400" windowHeight="17140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="137">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -245,15 +245,9 @@
     <t>Depth-First-Search</t>
   </si>
   <si>
-    <t>23 days ago</t>
-  </si>
-  <si>
     <t>136. Palindrome Partitioning</t>
   </si>
   <si>
-    <t>22 days ago</t>
-  </si>
-  <si>
     <t>137. Clone Graph</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Java String.substring(startIndex, endIndex)</t>
   </si>
   <si>
-    <t>78. Longest Common Prefix</t>
-  </si>
-  <si>
     <t>My own solution use a HashMap + while loop</t>
   </si>
   <si>
@@ -426,14 +417,43 @@
   </si>
   <si>
     <t>code is not perfect (length || time)</t>
+  </si>
+  <si>
+    <t>548. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>61. Search for a Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bineary Search Find First Position + Find Last Position </t>
+  </si>
+  <si>
+    <t>78. Longest Common Prefix (LCP)</t>
+  </si>
+  <si>
+    <t>76. Longest Increasing Subsequence (LIS)</t>
+  </si>
+  <si>
+    <t>160. Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Binary Search + Two Pointers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -485,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -495,6 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +823,7 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -815,7 +838,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -830,7 +853,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -845,7 +868,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1229,31 +1252,36 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1264,16 +1292,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDB9DD2-904A-3F48-816C-1C1985FD58B4}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="G1:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
     <col min="8" max="8" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1284,12 +1312,9 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="4"/>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,12 +1324,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1314,12 +1336,9 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1329,12 +1348,9 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="6"/>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,424 +1360,343 @@
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1717,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1792,27 +1727,27 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1822,12 +1757,12 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1837,7 +1772,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52AFE8ED-3442-664B-9B02-1E933ADAB755}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="2920" windowWidth="27400" windowHeight="17140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="3080" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -438,12 +437,18 @@
   </si>
   <si>
     <t>Binary Search + Two Pointers</t>
+  </si>
+  <si>
+    <t>followup question 只用一个 if 怎么处理？</t>
+  </si>
+  <si>
+    <t>156. Merge Intervals [Unfinished]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -461,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +497,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -505,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -518,6 +529,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,8 +1279,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,7 +1295,12 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1291,10 +1311,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDB9DD2-904A-3F48-816C-1C1985FD58B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC43988-97DD-E240-9B36-A50C9ED50B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/LxxxCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53E6EEB7-0A84-8D4E-A968-E7A10F2730F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="3080" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="4540" yWindow="3080" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -443,12 +444,15 @@
   </si>
   <si>
     <t>156. Merge Intervals [Unfinished]</t>
+  </si>
+  <si>
+    <t>77. Longest Common Subsequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -516,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -530,6 +534,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,11 +814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,6 +1719,19 @@
         <v>136</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1721,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LintCode review.xlsx
+++ b/LintCode review.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zna2/Desktop/LxxxCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/LxxxCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53E6EEB7-0A84-8D4E-A968-E7A10F2730F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="3080" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="144">
   <si>
     <t>1. A + B Problem</t>
   </si>
@@ -447,12 +446,24 @@
   </si>
   <si>
     <t>77. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>1038. Jewels and Stones</t>
+  </si>
+  <si>
+    <t>158. Valid Anagram</t>
+  </si>
+  <si>
+    <t>171. Anagrams</t>
+  </si>
+  <si>
+    <t>对java.String的函数并不熟悉导致算法有，写出来的过不了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -520,21 +531,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,28 +864,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="2"/>
       <c r="H1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="1"/>
@@ -859,455 +894,486 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="4"/>
       <c r="H4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="15" t="s">
         <v>138</v>
       </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>43321</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,420 +1382,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="6" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="29.83203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="11">
         <v>43320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="13">
         <v>43321</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1739,77 +1815,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="6" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="30" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
         <v>128</v>
       </c>
     </row>
